--- a/TestNG_Framework.xlsx
+++ b/TestNG_Framework.xlsx
@@ -103,7 +103,7 @@
     <t>QA Envoronment and Chrome Browser</t>
   </si>
   <si>
-    <t>12/30/2022</t>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t>TEST_ID</t>
